--- a/natmiOut/OldD7/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Erbb3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H2">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.212365025418565</v>
+        <v>0.1680563333333333</v>
       </c>
       <c r="N2">
-        <v>0.212365025418565</v>
+        <v>0.504169</v>
       </c>
       <c r="O2">
-        <v>0.05747578409345984</v>
+        <v>0.03491515448966758</v>
       </c>
       <c r="P2">
-        <v>0.05747578409345984</v>
+        <v>0.03491515448966757</v>
       </c>
       <c r="Q2">
-        <v>2.141845198501267</v>
+        <v>1.997706529337444</v>
       </c>
       <c r="R2">
-        <v>2.141845198501267</v>
+        <v>17.979358764037</v>
       </c>
       <c r="S2">
-        <v>0.04028955836977281</v>
+        <v>0.02083467326065285</v>
       </c>
       <c r="T2">
-        <v>0.04028955836977281</v>
+        <v>0.02083467326065284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H3">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I3">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J3">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.33511318572785</v>
+        <v>0.3027816666666667</v>
       </c>
       <c r="N3">
-        <v>0.33511318572785</v>
+        <v>0.908345</v>
       </c>
       <c r="O3">
-        <v>0.09069710547583237</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="P3">
-        <v>0.09069710547583237</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="Q3">
-        <v>3.379843580132721</v>
+        <v>3.599203317520555</v>
       </c>
       <c r="R3">
-        <v>3.379843580132721</v>
+        <v>32.39282985768499</v>
       </c>
       <c r="S3">
-        <v>0.0635771461437756</v>
+        <v>0.03753715774462077</v>
       </c>
       <c r="T3">
-        <v>0.0635771461437756</v>
+        <v>0.03753715774462077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H4">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="I4">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J4">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.14738265535771</v>
+        <v>0.3920839999999999</v>
       </c>
       <c r="N4">
-        <v>3.14738265535771</v>
+        <v>1.176252</v>
       </c>
       <c r="O4">
-        <v>0.8518271104307078</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="P4">
-        <v>0.8518271104307078</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="Q4">
-        <v>31.74348702163818</v>
+        <v>4.660751257110666</v>
       </c>
       <c r="R4">
-        <v>31.74348702163818</v>
+        <v>41.94676131399599</v>
       </c>
       <c r="S4">
-        <v>0.597116483541077</v>
+        <v>0.04860835571443193</v>
       </c>
       <c r="T4">
-        <v>0.597116483541077</v>
+        <v>0.04860835571443193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.38188700845157</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="H5">
-        <v>2.38188700845157</v>
+        <v>35.661373</v>
       </c>
       <c r="I5">
-        <v>0.1655478987609108</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="J5">
-        <v>0.1655478987609108</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.212365025418565</v>
+        <v>3.950355666666666</v>
       </c>
       <c r="N5">
-        <v>0.212365025418565</v>
+        <v>11.851067</v>
       </c>
       <c r="O5">
-        <v>0.05747578409345984</v>
+        <v>0.8207205027925185</v>
       </c>
       <c r="P5">
-        <v>0.05747578409345984</v>
+        <v>0.8207205027925184</v>
       </c>
       <c r="Q5">
-        <v>0.5058294950939675</v>
+        <v>46.95836897055455</v>
       </c>
       <c r="R5">
-        <v>0.5058294950939675</v>
+        <v>422.6253207349909</v>
       </c>
       <c r="S5">
-        <v>0.009514995286308059</v>
+        <v>0.4897427424833843</v>
       </c>
       <c r="T5">
-        <v>0.009514995286308059</v>
+        <v>0.4897427424833842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H6">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J6">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.33511318572785</v>
+        <v>0.1680563333333333</v>
       </c>
       <c r="N6">
-        <v>0.33511318572785</v>
+        <v>0.504169</v>
       </c>
       <c r="O6">
-        <v>0.09069710547583237</v>
+        <v>0.03491515448966758</v>
       </c>
       <c r="P6">
-        <v>0.09069710547583237</v>
+        <v>0.03491515448966757</v>
       </c>
       <c r="Q6">
-        <v>0.7982017434459839</v>
+        <v>0.06362439121788889</v>
       </c>
       <c r="R6">
-        <v>0.7982017434459839</v>
+        <v>0.572619520961</v>
       </c>
       <c r="S6">
-        <v>0.01501471523522075</v>
+        <v>0.0006635576261906245</v>
       </c>
       <c r="T6">
-        <v>0.01501471523522075</v>
+        <v>0.0006635576261906244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H7">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J7">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.14738265535771</v>
+        <v>0.3027816666666667</v>
       </c>
       <c r="N7">
-        <v>3.14738265535771</v>
+        <v>0.908345</v>
       </c>
       <c r="O7">
-        <v>0.8518271104307078</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="P7">
-        <v>0.8518271104307078</v>
+        <v>0.06290550590162643</v>
       </c>
       <c r="Q7">
-        <v>7.496709857422334</v>
+        <v>0.1146300102561111</v>
       </c>
       <c r="R7">
-        <v>7.496709857422334</v>
+        <v>1.031670092305</v>
       </c>
       <c r="S7">
-        <v>0.141018188239382</v>
+        <v>0.001195510338719998</v>
       </c>
       <c r="T7">
-        <v>0.141018188239382</v>
+        <v>0.001195510338719998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.92033769516674</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H8">
-        <v>1.92033769516674</v>
+        <v>1.135769</v>
       </c>
       <c r="I8">
-        <v>0.1334689131844636</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J8">
-        <v>0.1334689131844636</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.212365025418565</v>
+        <v>0.3920839999999999</v>
       </c>
       <c r="N8">
-        <v>0.212365025418565</v>
+        <v>1.176252</v>
       </c>
       <c r="O8">
-        <v>0.05747578409345984</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="P8">
-        <v>0.05747578409345984</v>
+        <v>0.08145883681618755</v>
       </c>
       <c r="Q8">
-        <v>0.4078125634463132</v>
+        <v>0.1484389508653333</v>
       </c>
       <c r="R8">
-        <v>0.4078125634463132</v>
+        <v>1.335950557788</v>
       </c>
       <c r="S8">
-        <v>0.007671230437378966</v>
+        <v>0.001548113797004525</v>
       </c>
       <c r="T8">
-        <v>0.007671230437378966</v>
+        <v>0.001548113797004525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.92033769516674</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H9">
-        <v>1.92033769516674</v>
+        <v>1.135769</v>
       </c>
       <c r="I9">
-        <v>0.1334689131844636</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="J9">
-        <v>0.1334689131844636</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.33511318572785</v>
+        <v>3.950355666666666</v>
       </c>
       <c r="N9">
-        <v>0.33511318572785</v>
+        <v>11.851067</v>
       </c>
       <c r="O9">
-        <v>0.09069710547583237</v>
+        <v>0.8207205027925185</v>
       </c>
       <c r="P9">
-        <v>0.09069710547583237</v>
+        <v>0.8207205027925184</v>
       </c>
       <c r="Q9">
-        <v>0.6435304827006031</v>
+        <v>1.495563835058111</v>
       </c>
       <c r="R9">
-        <v>0.6435304827006031</v>
+        <v>13.460074515523</v>
       </c>
       <c r="S9">
-        <v>0.01210524409683601</v>
+        <v>0.01559767833077013</v>
       </c>
       <c r="T9">
-        <v>0.01210524409683601</v>
+        <v>0.01559767833077013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H10">
+        <v>12.369594</v>
+      </c>
+      <c r="I10">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J10">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1680563333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.504169</v>
+      </c>
+      <c r="O10">
+        <v>0.03491515448966758</v>
+      </c>
+      <c r="P10">
+        <v>0.03491515448966757</v>
+      </c>
+      <c r="Q10">
+        <v>0.6929295374873332</v>
+      </c>
+      <c r="R10">
+        <v>6.236365837386</v>
+      </c>
+      <c r="S10">
+        <v>0.00722676744265937</v>
+      </c>
+      <c r="T10">
+        <v>0.007226767442659369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H11">
+        <v>12.369594</v>
+      </c>
+      <c r="I11">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J11">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3027816666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.908345</v>
+      </c>
+      <c r="O11">
+        <v>0.06290550590162643</v>
+      </c>
+      <c r="P11">
+        <v>0.06290550590162643</v>
+      </c>
+      <c r="Q11">
+        <v>1.248428762436667</v>
+      </c>
+      <c r="R11">
+        <v>11.23585886193</v>
+      </c>
+      <c r="S11">
+        <v>0.01302023343899055</v>
+      </c>
+      <c r="T11">
+        <v>0.01302023343899055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H12">
+        <v>12.369594</v>
+      </c>
+      <c r="I12">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J12">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3920839999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.176252</v>
+      </c>
+      <c r="O12">
+        <v>0.08145883681618755</v>
+      </c>
+      <c r="P12">
+        <v>0.08145883681618755</v>
+      </c>
+      <c r="Q12">
+        <v>1.616639964632</v>
+      </c>
+      <c r="R12">
+        <v>14.549759681688</v>
+      </c>
+      <c r="S12">
+        <v>0.01686041715766532</v>
+      </c>
+      <c r="T12">
+        <v>0.01686041715766532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="H13">
+        <v>12.369594</v>
+      </c>
+      <c r="I13">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="J13">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.950355666666666</v>
+      </c>
+      <c r="N13">
+        <v>11.851067</v>
+      </c>
+      <c r="O13">
+        <v>0.8207205027925185</v>
+      </c>
+      <c r="P13">
+        <v>0.8207205027925184</v>
+      </c>
+      <c r="Q13">
+        <v>16.28809858408866</v>
+      </c>
+      <c r="R13">
+        <v>146.592887256798</v>
+      </c>
+      <c r="S13">
+        <v>0.1698734058547329</v>
+      </c>
+      <c r="T13">
+        <v>0.1698734058547329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H14">
+        <v>10.595293</v>
+      </c>
+      <c r="I14">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J14">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1680563333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.504169</v>
+      </c>
+      <c r="O14">
+        <v>0.03491515448966758</v>
+      </c>
+      <c r="P14">
+        <v>0.03491515448966757</v>
+      </c>
+      <c r="Q14">
+        <v>0.5935353640574444</v>
+      </c>
+      <c r="R14">
+        <v>5.341818276516999</v>
+      </c>
+      <c r="S14">
+        <v>0.006190156160164734</v>
+      </c>
+      <c r="T14">
+        <v>0.006190156160164734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H15">
+        <v>10.595293</v>
+      </c>
+      <c r="I15">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J15">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3027816666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.908345</v>
+      </c>
+      <c r="O15">
+        <v>0.06290550590162643</v>
+      </c>
+      <c r="P15">
+        <v>0.06290550590162643</v>
+      </c>
+      <c r="Q15">
+        <v>1.069353491120556</v>
+      </c>
+      <c r="R15">
+        <v>9.624181420085</v>
+      </c>
+      <c r="S15">
+        <v>0.01115260437929511</v>
+      </c>
+      <c r="T15">
+        <v>0.01115260437929511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.92033769516674</v>
-      </c>
-      <c r="H10">
-        <v>1.92033769516674</v>
-      </c>
-      <c r="I10">
-        <v>0.1334689131844636</v>
-      </c>
-      <c r="J10">
-        <v>0.1334689131844636</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.14738265535771</v>
-      </c>
-      <c r="N10">
-        <v>3.14738265535771</v>
-      </c>
-      <c r="O10">
-        <v>0.8518271104307078</v>
-      </c>
-      <c r="P10">
-        <v>0.8518271104307078</v>
-      </c>
-      <c r="Q10">
-        <v>6.044037554197399</v>
-      </c>
-      <c r="R10">
-        <v>6.044037554197399</v>
-      </c>
-      <c r="S10">
-        <v>0.1136924386502486</v>
-      </c>
-      <c r="T10">
-        <v>0.1136924386502486</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H16">
+        <v>10.595293</v>
+      </c>
+      <c r="I16">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J16">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3920839999999999</v>
+      </c>
+      <c r="N16">
+        <v>1.176252</v>
+      </c>
+      <c r="O16">
+        <v>0.08145883681618755</v>
+      </c>
+      <c r="P16">
+        <v>0.08145883681618755</v>
+      </c>
+      <c r="Q16">
+        <v>1.384748286870666</v>
+      </c>
+      <c r="R16">
+        <v>12.462734581836</v>
+      </c>
+      <c r="S16">
+        <v>0.01444195014708577</v>
+      </c>
+      <c r="T16">
+        <v>0.01444195014708577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="H17">
+        <v>10.595293</v>
+      </c>
+      <c r="I17">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="J17">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.950355666666666</v>
+      </c>
+      <c r="N17">
+        <v>11.851067</v>
+      </c>
+      <c r="O17">
+        <v>0.8207205027925185</v>
+      </c>
+      <c r="P17">
+        <v>0.8207205027925184</v>
+      </c>
+      <c r="Q17">
+        <v>13.95172524751455</v>
+      </c>
+      <c r="R17">
+        <v>125.565527227631</v>
+      </c>
+      <c r="S17">
+        <v>0.1455066761236312</v>
+      </c>
+      <c r="T17">
+        <v>0.1455066761236311</v>
       </c>
     </row>
   </sheetData>
